--- a/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1118 +453,1587 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44928</v>
+        <v>44927</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44949</v>
+        <v>44934</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
-      </c>
-      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44956</v>
+        <v>44955</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
-      </c>
-      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44977</v>
+        <v>44962</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44984</v>
+        <v>44969</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44991</v>
+        <v>44983</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
-      </c>
-      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44998</v>
+        <v>44990</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
-      </c>
-      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45005</v>
+        <v>44997</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45012</v>
+        <v>45004</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45019</v>
+        <v>45011</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45026</v>
+        <v>45018</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45033</v>
+        <v>45025</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45040</v>
+        <v>45032</v>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
-      </c>
-      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45047</v>
+        <v>45039</v>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
-      </c>
-      <c r="C17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45054</v>
+        <v>45046</v>
       </c>
       <c r="B18" t="n">
-        <v>71</v>
-      </c>
-      <c r="C18" t="n">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45061</v>
+        <v>45053</v>
       </c>
       <c r="B19" t="n">
-        <v>46</v>
-      </c>
-      <c r="C19" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45068</v>
+        <v>45060</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45075</v>
+        <v>45067</v>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
-      </c>
-      <c r="C21" t="n">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45082</v>
+        <v>45074</v>
       </c>
       <c r="B22" t="n">
-        <v>83</v>
-      </c>
-      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="B23" t="n">
-        <v>82</v>
-      </c>
-      <c r="C23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C24" t="n">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="B25" t="n">
-        <v>53</v>
-      </c>
-      <c r="C25" t="n">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45110</v>
+        <v>45102</v>
       </c>
       <c r="B26" t="n">
-        <v>67</v>
-      </c>
-      <c r="C26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45117</v>
+        <v>45109</v>
       </c>
       <c r="B27" t="n">
-        <v>37</v>
-      </c>
-      <c r="C27" t="n">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45124</v>
+        <v>45116</v>
       </c>
       <c r="B28" t="n">
-        <v>18</v>
-      </c>
-      <c r="C28" t="n">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45131</v>
+        <v>45123</v>
       </c>
       <c r="B29" t="n">
         <v>37</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45138</v>
+        <v>45130</v>
       </c>
       <c r="B30" t="n">
-        <v>66</v>
-      </c>
-      <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45145</v>
+        <v>45137</v>
       </c>
       <c r="B31" t="n">
-        <v>53</v>
-      </c>
-      <c r="C31" t="n">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45152</v>
+        <v>45144</v>
       </c>
       <c r="B32" t="n">
-        <v>48</v>
-      </c>
-      <c r="C32" t="n">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45159</v>
+        <v>45151</v>
       </c>
       <c r="B33" t="n">
-        <v>62</v>
-      </c>
-      <c r="C33" t="n">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45166</v>
+        <v>45158</v>
       </c>
       <c r="B34" t="n">
-        <v>57</v>
-      </c>
-      <c r="C34" t="n">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45173</v>
+        <v>45165</v>
       </c>
       <c r="B35" t="n">
-        <v>55</v>
-      </c>
-      <c r="C35" t="n">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45180</v>
+        <v>45172</v>
       </c>
       <c r="B36" t="n">
-        <v>43</v>
-      </c>
-      <c r="C36" t="n">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45187</v>
+        <v>45179</v>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
-      </c>
-      <c r="C37" t="n">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45194</v>
+        <v>45186</v>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45201</v>
+        <v>45193</v>
       </c>
       <c r="B39" t="n">
-        <v>52</v>
-      </c>
-      <c r="C39" t="n">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45208</v>
+        <v>45200</v>
       </c>
       <c r="B40" t="n">
-        <v>27</v>
-      </c>
-      <c r="C40" t="n">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45215</v>
+        <v>45207</v>
       </c>
       <c r="B41" t="n">
-        <v>29</v>
-      </c>
-      <c r="C41" t="n">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45222</v>
+        <v>45214</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
-      </c>
-      <c r="C42" t="n">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45229</v>
+        <v>45221</v>
       </c>
       <c r="B43" t="n">
-        <v>55</v>
-      </c>
-      <c r="C43" t="n">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45236</v>
+        <v>45228</v>
       </c>
       <c r="B44" t="n">
-        <v>75</v>
-      </c>
-      <c r="C44" t="n">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45243</v>
+        <v>45235</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
-      </c>
-      <c r="C45" t="n">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45250</v>
+        <v>45242</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
-      </c>
-      <c r="C46" t="n">
+        <v>75</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45257</v>
+        <v>45249</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45264</v>
+        <v>45256</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45271</v>
+        <v>45263</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45285</v>
+        <v>45270</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45292</v>
+        <v>45277</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45299</v>
+        <v>45291</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45306</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45313</v>
+        <v>45305</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45320</v>
+        <v>45312</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45327</v>
+        <v>45319</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45334</v>
+        <v>45326</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45341</v>
+        <v>45333</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45348</v>
+        <v>45340</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45355</v>
+        <v>45347</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45362</v>
+        <v>45354</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45369</v>
+        <v>45361</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45376</v>
+        <v>45368</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45390</v>
+        <v>45382</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45397</v>
+        <v>45389</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45404</v>
+        <v>45396</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45411</v>
+        <v>45403</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45418</v>
+        <v>45410</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45425</v>
+        <v>45417</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45432</v>
+        <v>45424</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45439</v>
+        <v>45431</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45446</v>
+        <v>45438</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45453</v>
+        <v>45445</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45460</v>
+        <v>45452</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45467</v>
+        <v>45459</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45474</v>
+        <v>45466</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45481</v>
+        <v>45473</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45488</v>
+        <v>45480</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45495</v>
+        <v>45487</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45502</v>
+        <v>45494</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45509</v>
+        <v>45501</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45516</v>
+        <v>45508</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45523</v>
+        <v>45515</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
-      </c>
-      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45530</v>
+        <v>45522</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45537</v>
+        <v>45529</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45544</v>
+        <v>45536</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45551</v>
+        <v>45543</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45558</v>
+        <v>45550</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45565</v>
+        <v>45557</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45572</v>
+        <v>45564</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45579</v>
+        <v>45571</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45586</v>
+        <v>45578</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45593</v>
+        <v>45585</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45600</v>
+        <v>45592</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45607</v>
+        <v>45599</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45628</v>
+        <v>45620</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45642</v>
+        <v>45634</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1454 +453,1118 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44934</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="D4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44955</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44962</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44962</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44969</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44983</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44990</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44997</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45004</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45011</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45018</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45025</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45032</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D16" t="n">
+        <v>31</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45039</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45046</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D18" t="n">
+        <v>71</v>
+      </c>
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45053</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45060</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>71</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45067</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45074</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C22" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45081</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D23" t="n">
+        <v>82</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45088</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>83</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45095</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>82</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C25" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45102</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D26" t="n">
+        <v>67</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45109</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D27" t="n">
+        <v>37</v>
+      </c>
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45116</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45123</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45130</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45137</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>37</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D31" t="n">
+        <v>53</v>
+      </c>
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45144</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45151</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C33" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45158</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C34" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45165</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C35" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45172</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>57</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D36" t="n">
+        <v>43</v>
+      </c>
+      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45179</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>55</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45186</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45193</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C39" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45200</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D40" t="n">
+        <v>27</v>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45207</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D41" t="n">
+        <v>29</v>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45214</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>27</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45221</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>29</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D43" t="n">
+        <v>55</v>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45228</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D44" t="n">
+        <v>75</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45235</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>55</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45242</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>75</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45249</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45256</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45263</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45270</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45277</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45291</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45298</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45305</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45312</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45319</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45326</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45333</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45340</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45347</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45354</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45361</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45368</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45375</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45382</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45389</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45396</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45403</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45410</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45417</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45424</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45431</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45438</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45445</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45452</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45459</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45466</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45473</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45480</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45487</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45494</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45501</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45508</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45515</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45522</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45529</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45536</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45543</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45550</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45557</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45564</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45571</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45578</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45585</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45592</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45599</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45606</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45613</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45620</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45627</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45634</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45641</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D104" t="n">
+      <c r="C102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1915,7 +1579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,13 +1606,255 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45369</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>168</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-94.04761904761905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-93.33333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-41.66666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>110</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57.14285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-27.27272727272727</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>110</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>210</v>
+      </c>
+      <c r="C16" t="n">
+        <v>90.90909090909092</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-95.23809523809523</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>120</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>110</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-8.333333333333337</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-45.45454545454546</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>50</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>-16.66666666666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>210</v>
+      </c>
+      <c r="C23" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-76.19047619047619</v>
       </c>
     </row>
   </sheetData>
@@ -1994,16 +1900,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>1718</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>74.69565217391305</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +1940,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>107.9209486166008</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,14 @@
         <v>45655.99999999999</v>
       </c>
       <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1272,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG73"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1450,7 +1458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15UFJVNT</t>
+          <t>7TJZIXQQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1499,16 +1507,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1518,7 +1526,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T2" s="2" t="n">
@@ -1539,19 +1547,19 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>1024</v>
+        <v>3072</v>
       </c>
       <c r="Z2" t="n">
-        <v>1024</v>
+        <v>3072</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024</v>
+        <v>3072</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>44967</v>
+        <v>44982</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -1567,7 +1575,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6TPMZUOT</t>
+          <t>12WW3C5V</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1635,7 +1643,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>SCK4</t>
         </is>
       </c>
       <c r="T3" s="2" t="n">
@@ -1668,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>44990</v>
+        <v>44978</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1684,7 +1692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>78NGU1WN</t>
+          <t>1NVSZ4HK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1752,7 +1760,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T4" s="2" t="n">
@@ -1785,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="2" t="n">
-        <v>44973</v>
+        <v>44972</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1801,7 +1809,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4GLCEYTH</t>
+          <t>4AA2UZ2I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1869,7 +1877,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T5" s="2" t="n">
@@ -1902,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>44974</v>
+        <v>44973</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1918,7 +1926,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7L5KGX6L</t>
+          <t>4GLCEYTH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1986,7 +1994,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T6" s="2" t="n">
@@ -2019,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>44970</v>
+        <v>44974</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -2035,7 +2043,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1J7WHV8C</t>
+          <t>4MGED3UD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2103,7 +2111,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>FTW1</t>
         </is>
       </c>
       <c r="T7" s="2" t="n">
@@ -2136,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>44974</v>
+        <v>44969</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -2152,7 +2160,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1SGPIFIZ</t>
+          <t>66VYHYHP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2220,7 +2228,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>SMF3</t>
         </is>
       </c>
       <c r="T8" s="2" t="n">
@@ -2253,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>44978</v>
+        <v>44976</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -2269,7 +2277,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>68J4YWRM</t>
+          <t>78NGU1WN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2337,7 +2345,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>SCK4</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T9" s="2" t="n">
@@ -2370,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>44979</v>
+        <v>44973</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -2386,7 +2394,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>66VYHYHP</t>
+          <t>15UFJVNT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2454,7 +2462,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>SMF3</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T10" s="2" t="n">
@@ -2487,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>44976</v>
+        <v>44967</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -2503,7 +2511,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7OMP4SJR</t>
+          <t>6TPMZUOT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2571,7 +2579,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T11" s="2" t="n">
@@ -2604,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>44978</v>
+        <v>44990</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -2620,7 +2628,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1KQVY7MO</t>
+          <t>1J7WHV8C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2669,16 +2677,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2688,7 +2696,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>LAS1</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T12" s="2" t="n">
@@ -2709,19 +2717,19 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="Z12" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="AA12" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>44979</v>
+        <v>44974</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -2737,7 +2745,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7JZFDLZQ</t>
+          <t>1SGPIFIZ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2805,7 +2813,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T13" s="2" t="n">
@@ -2838,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>44988</v>
+        <v>44978</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2854,7 +2862,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7TJZIXQQ</t>
+          <t>68J4YWRM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2903,16 +2911,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2922,7 +2930,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>SCK4</t>
         </is>
       </c>
       <c r="T14" s="2" t="n">
@@ -2943,19 +2951,19 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>3072</v>
+        <v>1024</v>
       </c>
       <c r="Z14" t="n">
-        <v>3072</v>
+        <v>1024</v>
       </c>
       <c r="AA14" t="n">
-        <v>3072</v>
+        <v>1024</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>44982</v>
+        <v>44979</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -2971,7 +2979,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4AA2UZ2I</t>
+          <t>7OMP4SJR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3039,7 +3047,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T15" s="2" t="n">
@@ -3072,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2" t="n">
-        <v>44973</v>
+        <v>44978</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -3088,7 +3096,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1NVSZ4HK</t>
+          <t>16PSUYYE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3156,7 +3164,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T16" s="2" t="n">
@@ -3205,7 +3213,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12WW3C5V</t>
+          <t>1KQVY7MO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3254,16 +3262,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -3273,7 +3281,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>SCK4</t>
+          <t>LAS1</t>
         </is>
       </c>
       <c r="T17" s="2" t="n">
@@ -3294,19 +3302,19 @@
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Z17" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="AA17" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -3322,7 +3330,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16PSUYYE</t>
+          <t>7JZFDLZQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3390,7 +3398,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T18" s="2" t="n">
@@ -3423,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>44972</v>
+        <v>44988</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -3439,7 +3447,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4MGED3UD</t>
+          <t>7L5KGX6L</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3507,7 +3515,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>FTW1</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T19" s="2" t="n">
@@ -3540,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -4141,7 +4149,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>816CLUHY</t>
+          <t>6QKYT5YJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4202,14 +4210,14 @@
         <v>10</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T25" s="2" t="n">
@@ -4239,10 +4247,10 @@
         <v>1280</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -4258,7 +4266,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6QKYT5YJ</t>
+          <t>816CLUHY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4319,14 +4327,14 @@
         <v>10</v>
       </c>
       <c r="Q26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T26" s="2" t="n">
@@ -4356,10 +4364,10 @@
         <v>1280</v>
       </c>
       <c r="AB26" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>45016</v>
+        <v>45014</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -4375,7 +4383,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2NVDVJ7V</t>
+          <t>2QSWD3PT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4476,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -4492,7 +4500,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2QSWD3PT</t>
+          <t>2NVDVJ7V</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4593,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -4609,7 +4617,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6FE3GPWU</t>
+          <t>6XQ91Q7O</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4658,16 +4666,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4677,7 +4685,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>SCK4</t>
         </is>
       </c>
       <c r="T29" s="2" t="n">
@@ -4698,13 +4706,13 @@
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>5120</v>
+        <v>2560</v>
       </c>
       <c r="Z29" t="n">
-        <v>5120</v>
+        <v>2560</v>
       </c>
       <c r="AA29" t="n">
-        <v>5120</v>
+        <v>2560</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -4726,7 +4734,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>57E1DXXV</t>
+          <t>6FE3GPWU</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4794,7 +4802,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T30" s="2" t="n">
@@ -4843,7 +4851,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>47ZWGVZZ</t>
+          <t>5O1YLCRX</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4892,16 +4900,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -4911,7 +4919,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>SMF3</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T31" s="2" t="n">
@@ -4932,13 +4940,13 @@
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>2560</v>
+        <v>1280</v>
       </c>
       <c r="Z31" t="n">
-        <v>2560</v>
+        <v>1280</v>
       </c>
       <c r="AA31" t="n">
-        <v>2560</v>
+        <v>1280</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -4960,7 +4968,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5O1YLCRX</t>
+          <t>57E1DXXV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5009,16 +5017,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -5028,7 +5036,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T32" s="2" t="n">
@@ -5049,13 +5057,13 @@
         </is>
       </c>
       <c r="Y32" t="n">
-        <v>1280</v>
+        <v>5120</v>
       </c>
       <c r="Z32" t="n">
-        <v>1280</v>
+        <v>5120</v>
       </c>
       <c r="AA32" t="n">
-        <v>1280</v>
+        <v>5120</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -5077,7 +5085,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6XQ91Q7O</t>
+          <t>47ZWGVZZ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5145,7 +5153,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>SCK4</t>
+          <t>SMF3</t>
         </is>
       </c>
       <c r="T33" s="2" t="n">
@@ -5428,7 +5436,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3MUKJHMH</t>
+          <t>6NX6GTTM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5496,7 +5504,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T36" s="2" t="n">
@@ -5545,7 +5553,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3U9LXX2P</t>
+          <t>6XN739UM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5594,16 +5602,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -5613,7 +5621,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>TEB9</t>
         </is>
       </c>
       <c r="T37" s="2" t="n">
@@ -5634,13 +5642,13 @@
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>2560</v>
+        <v>1280</v>
       </c>
       <c r="Z37" t="n">
-        <v>2560</v>
+        <v>1280</v>
       </c>
       <c r="AA37" t="n">
-        <v>2560</v>
+        <v>1280</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -5662,7 +5670,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>469XJNKV</t>
+          <t>6JM3Z27C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5730,7 +5738,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T38" s="2" t="n">
@@ -5896,7 +5904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6XN739UM</t>
+          <t>469XJNKV</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5945,16 +5953,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -5964,7 +5972,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>TEB9</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T40" s="2" t="n">
@@ -5985,13 +5993,13 @@
         </is>
       </c>
       <c r="Y40" t="n">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="Z40" t="n">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="AA40" t="n">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -6013,7 +6021,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6JM3Z27C</t>
+          <t>3U9LXX2P</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6081,7 +6089,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T41" s="2" t="n">
@@ -6130,7 +6138,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6NX6GTTM</t>
+          <t>3MUKJHMH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6198,7 +6206,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T42" s="2" t="n">
@@ -6481,7 +6489,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5QN8G5PT</t>
+          <t>8F5XEA2Y</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6530,19 +6538,19 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6570,16 +6578,16 @@
         </is>
       </c>
       <c r="Y45" t="n">
-        <v>1280</v>
+        <v>3840</v>
       </c>
       <c r="Z45" t="n">
-        <v>1280</v>
+        <v>3840</v>
       </c>
       <c r="AA45" t="n">
-        <v>1280</v>
+        <v>3712</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AC45" s="2" t="n">
         <v>45083</v>
@@ -6598,7 +6606,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8F5XEA2Y</t>
+          <t>5QN8G5PT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6647,19 +6655,19 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N46" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6687,16 +6695,16 @@
         </is>
       </c>
       <c r="Y46" t="n">
-        <v>3840</v>
+        <v>1280</v>
       </c>
       <c r="Z46" t="n">
-        <v>3840</v>
+        <v>1280</v>
       </c>
       <c r="AA46" t="n">
-        <v>3712</v>
+        <v>1280</v>
       </c>
       <c r="AB46" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="2" t="n">
         <v>45083</v>
@@ -8236,7 +8244,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4BFK6T1D</t>
+          <t>5ST9VQ1C</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8285,16 +8293,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N60" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -8304,7 +8312,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T60" s="2" t="n">
@@ -8325,13 +8333,13 @@
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>5120</v>
+        <v>8960</v>
       </c>
       <c r="Z60" t="n">
-        <v>5120</v>
+        <v>8960</v>
       </c>
       <c r="AA60" t="n">
-        <v>5120</v>
+        <v>8960</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
@@ -8353,7 +8361,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5ST9VQ1C</t>
+          <t>4BFK6T1D</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8402,16 +8410,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N61" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -8421,7 +8429,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T61" s="2" t="n">
@@ -8442,13 +8450,13 @@
         </is>
       </c>
       <c r="Y61" t="n">
-        <v>8960</v>
+        <v>5120</v>
       </c>
       <c r="Z61" t="n">
-        <v>8960</v>
+        <v>5120</v>
       </c>
       <c r="AA61" t="n">
-        <v>8960</v>
+        <v>5120</v>
       </c>
       <c r="AB61" t="n">
         <v>0</v>
@@ -8470,7 +8478,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2A4UWKAM</t>
+          <t>6ZLXT7TM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8528,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="Q62" t="n">
         <v>10</v>
@@ -8538,7 +8546,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T62" s="2" t="n">
@@ -8565,7 +8573,7 @@
         <v>2560</v>
       </c>
       <c r="AA62" t="n">
-        <v>1280</v>
+        <v>4224</v>
       </c>
       <c r="AB62" t="n">
         <v>1280</v>
@@ -8704,7 +8712,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6ZLXT7TM</t>
+          <t>2A4UWKAM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8762,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="Q64" t="n">
         <v>10</v>
@@ -8772,7 +8780,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T64" s="2" t="n">
@@ -8799,7 +8807,7 @@
         <v>2560</v>
       </c>
       <c r="AA64" t="n">
-        <v>4224</v>
+        <v>1280</v>
       </c>
       <c r="AB64" t="n">
         <v>1280</v>
@@ -9055,7 +9063,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7HZFK7QU</t>
+          <t>44NJRHWE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9100,11 +9108,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>IA - Accepted: EDI Only</t>
+          <t>IQ - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N67" t="n">
         <v>50</v>
@@ -9123,7 +9131,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>PHX6</t>
         </is>
       </c>
       <c r="T67" s="2" t="n">
@@ -9144,7 +9152,7 @@
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>6400</v>
+        <v>8960</v>
       </c>
       <c r="Z67" t="n">
         <v>6400</v>
@@ -9172,7 +9180,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>44NJRHWE</t>
+          <t>7HZFK7QU</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9217,11 +9225,11 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>IQ - Accepted: EDI Only</t>
+          <t>IA - Accepted: EDI Only</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N68" t="n">
         <v>50</v>
@@ -9240,7 +9248,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>PHX6</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T68" s="2" t="n">
@@ -9261,7 +9269,7 @@
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>8960</v>
+        <v>6400</v>
       </c>
       <c r="Z68" t="n">
         <v>6400</v>
@@ -9284,591 +9292,6 @@
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="n">
         <v>67</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>82BUR7OM</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>GIGABYTE B760M DS3H AX DDR4 (LGA 1700/ Intel/ B760/ M-ATX/ DDR4/ 2* M.2/ PCIe 4.0/ USB 3.2 Gen 2 Type-C/WiFi 6E/ 2.5GbE LAN/Q-Flash Plus/PCIe EZ-Latch/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>B083R7SWF5</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>OS - Cancelled: Out of stock</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>10</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>ABE8</t>
-        </is>
-      </c>
-      <c r="T69" s="2" t="n">
-        <v>45424</v>
-      </c>
-      <c r="U69" s="2" t="n">
-        <v>45428</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1</v>
-      </c>
-      <c r="W69" t="n">
-        <v>128</v>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y69" t="n">
-        <v>1280</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="2" t="n">
-        <v>45424</v>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1PJUJSXW</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>GIGABYTE B760M DS3H AX DDR4 (LGA 1700/ Intel/ B760/ M-ATX/ DDR4/ 2* M.2/ PCIe 4.0/ USB 3.2 Gen 2 Type-C/WiFi 6E/ 2.5GbE LAN/Q-Flash Plus/PCIe EZ-Latch/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>B083R7SWF5</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>OS - Cancelled: Out of stock</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>10</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>FTW1</t>
-        </is>
-      </c>
-      <c r="T70" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="U70" s="2" t="n">
-        <v>45400</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1</v>
-      </c>
-      <c r="W70" t="n">
-        <v>128</v>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y70" t="n">
-        <v>1280</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2IALL9WK</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>GIGABYTE B760M DS3H AX DDR4 (LGA 1700/ Intel/ B760/ M-ATX/ DDR4/ 2* M.2/ PCIe 4.0/ USB 3.2 Gen 2 Type-C/WiFi 6E/ 2.5GbE LAN/Q-Flash Plus/PCIe EZ-Latch/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>B083R7SWF5</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>OS - Cancelled: Out of stock</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>10</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>SMF3</t>
-        </is>
-      </c>
-      <c r="T71" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="U71" s="2" t="n">
-        <v>45400</v>
-      </c>
-      <c r="V71" t="n">
-        <v>1</v>
-      </c>
-      <c r="W71" t="n">
-        <v>128</v>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y71" t="n">
-        <v>1280</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>5ZEC9X1B</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>GIGABYTE B760M DS3H AX DDR4 (LGA 1700/ Intel/ B760/ M-ATX/ DDR4/ 2* M.2/ PCIe 4.0/ USB 3.2 Gen 2 Type-C/WiFi 6E/ 2.5GbE LAN/Q-Flash Plus/PCIe EZ-Latch/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>B083R7SWF5</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>OS - Cancelled: Out of stock</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>10</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>ABE8</t>
-        </is>
-      </c>
-      <c r="T72" s="2" t="n">
-        <v>45417</v>
-      </c>
-      <c r="U72" s="2" t="n">
-        <v>45421</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W72" t="n">
-        <v>128</v>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y72" t="n">
-        <v>1280</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="2" t="n">
-        <v>45417</v>
-      </c>
-      <c r="AD72" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>7WOYDJ8X</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>GIGABYTE B760M DS3H AX DDR4 (LGA 1700/ Intel/ B760/ M-ATX/ DDR4/ 2* M.2/ PCIe 4.0/ USB 3.2 Gen 2 Type-C/WiFi 6E/ 2.5GbE LAN/Q-Flash Plus/PCIe EZ-Latch/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>B083R7SWF5</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>B760M DS3H AX DDR4</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>OS - Cancelled: Out of stock</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>10</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>CLT2</t>
-        </is>
-      </c>
-      <c r="T73" s="2" t="n">
-        <v>45403</v>
-      </c>
-      <c r="U73" s="2" t="n">
-        <v>45407</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1</v>
-      </c>
-      <c r="W73" t="n">
-        <v>128</v>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y73" t="n">
-        <v>1280</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="2" t="n">
-        <v>45403</v>
-      </c>
-      <c r="AD73" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="n">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -9882,7 +9305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9948,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -9981,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -10003,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -10113,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -10333,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -10344,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -10355,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -10366,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -10498,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -10509,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -10542,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -10553,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -10619,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -10630,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
@@ -10729,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
@@ -10740,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
@@ -10751,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -10861,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89">
@@ -10872,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
@@ -10883,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -10905,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93">
@@ -10916,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
@@ -11037,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
@@ -11048,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
@@ -11306,65 +10729,65 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45369</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45369</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45369</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45369</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -11372,10 +10795,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -11383,7 +10806,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -11394,10 +10817,10 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -11405,7 +10828,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -11416,7 +10839,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -11427,7 +10850,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -11438,7 +10861,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -11449,7 +10872,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -11460,7 +10883,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -11471,7 +10894,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -11482,7 +10905,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -11493,7 +10916,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -11504,7 +10927,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -11515,7 +10938,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -11526,7 +10949,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -11537,10 +10960,10 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -11548,10 +10971,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -11559,10 +10982,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -11570,7 +10993,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -11581,7 +11004,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -11592,10 +11015,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -11603,10 +11026,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -11614,10 +11037,10 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -11625,7 +11048,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -11636,7 +11059,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -11647,7 +11070,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -11658,10 +11081,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -11669,7 +11092,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -11680,7 +11103,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -11691,7 +11114,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -11702,7 +11125,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -11713,7 +11136,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -11724,7 +11147,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -11735,7 +11158,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -11746,7 +11169,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -11757,56 +11180,12 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>45634.99999999999</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>45641.99999999999</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>45648.99999999999</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>45655.99999999999</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0</v>
-      </c>
-      <c r="C174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11853,10 +11232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1718</v>
+        <v>1668</v>
       </c>
       <c r="B2" t="n">
-        <v>23.86111111111111</v>
+        <v>24.8955223880597</v>
       </c>
       <c r="C2" t="n">
         <v>110</v>
@@ -11893,7 +11272,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43.43505477308295</v>
+        <v>50.74355495251018</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,6 +1266,14 @@
         <v>45662.99999999999</v>
       </c>
       <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9305,7 +9313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11186,6 +11194,17 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7SWF5_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,6 +1274,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9313,7 +9321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9764,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -9786,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -9797,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -9808,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -11205,6 +11213,17 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
         <v>0</v>
       </c>
     </row>
